--- a/data/File_10_-_IoD2019_Local_Authority_District_Summaries__lower-tier__.xlsx
+++ b/data/File_10_-_IoD2019_Local_Authority_District_Summaries__lower-tier__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPENNEY\OneDrive - MHCLG\Desktop\Release\All for Web\TABLES FOR RELEASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Warrington_council\Warrington_deprivation_index\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{C594C690-76FD-4EC3-96BF-BFAB715B74C9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{38E82E95-6F61-4B2D-92E9-90764D9E16F4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2FB67A-D19C-4D9F-A468-F95C7ACE3F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="11" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <sheet name="IDACI" sheetId="9" r:id="rId10"/>
     <sheet name="IDAOPI" sheetId="10" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IMD!$A$1:$L$318</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -4818,9 +4821,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="9.1796875" style="22"/>
+    <col min="1" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4839,20 +4842,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="16" style="7" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
     <col min="5" max="5" width="16" style="8" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" customWidth="1"/>
     <col min="7" max="7" width="16" style="9" customWidth="1"/>
     <col min="8" max="8" width="16" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="2"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" ht="65">
+    <row r="1" spans="1:8" s="11" customFormat="1" ht="63.75">
       <c r="A1" s="11" t="s">
         <v>697</v>
       </c>
@@ -13134,20 +13137,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="16" style="7" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
     <col min="5" max="5" width="16" style="8" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" customWidth="1"/>
     <col min="7" max="7" width="16" style="9" customWidth="1"/>
     <col min="8" max="8" width="16" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="2"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" ht="65">
+    <row r="1" spans="1:8" s="11" customFormat="1" ht="63.75">
       <c r="A1" s="11" t="s">
         <v>697</v>
       </c>
@@ -21423,17 +21426,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="16" style="7" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
     <col min="5" max="5" width="16" style="8" customWidth="1"/>
@@ -21444,10 +21448,10 @@
     <col min="10" max="10" width="16" style="2" customWidth="1"/>
     <col min="11" max="11" width="16" style="7" customWidth="1"/>
     <col min="12" max="12" width="16" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="2"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="65">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="63.75">
       <c r="A1" s="1" t="s">
         <v>697</v>
       </c>
@@ -21485,7 +21489,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" hidden="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -21523,7 +21527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" hidden="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -21561,7 +21565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" hidden="1">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -21599,7 +21603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" hidden="1">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -21637,7 +21641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" hidden="1">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -21675,7 +21679,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" hidden="1">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -21751,7 +21755,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" hidden="1">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -21789,7 +21793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" hidden="1">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -21827,7 +21831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" hidden="1">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -21865,7 +21869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" hidden="1">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -21903,7 +21907,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" hidden="1">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -21941,7 +21945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" hidden="1">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -21979,7 +21983,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" hidden="1">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -22017,7 +22021,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" hidden="1">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -22055,7 +22059,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" hidden="1">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -22093,7 +22097,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" hidden="1">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -22131,7 +22135,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" hidden="1">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -22169,7 +22173,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" hidden="1">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -22207,7 +22211,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" hidden="1">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -22245,7 +22249,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" hidden="1">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -22283,7 +22287,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" hidden="1">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -22321,7 +22325,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" hidden="1">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -22359,7 +22363,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" hidden="1">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -22397,7 +22401,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" hidden="1">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -22435,7 +22439,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" hidden="1">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -22473,7 +22477,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" hidden="1">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -22511,7 +22515,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" hidden="1">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -22549,7 +22553,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" hidden="1">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -22587,7 +22591,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" hidden="1">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -22625,7 +22629,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" hidden="1">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -22663,7 +22667,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" hidden="1">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -22701,7 +22705,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" hidden="1">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -22739,7 +22743,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" hidden="1">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -22777,7 +22781,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" hidden="1">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -22815,7 +22819,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" hidden="1">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -22853,7 +22857,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" hidden="1">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -22891,7 +22895,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" hidden="1">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -22929,7 +22933,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" hidden="1">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -22967,7 +22971,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" hidden="1">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -23005,7 +23009,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" hidden="1">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -23043,7 +23047,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" hidden="1">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -23081,7 +23085,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" hidden="1">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
@@ -23119,7 +23123,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" hidden="1">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -23157,7 +23161,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" hidden="1">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
@@ -23271,7 +23275,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" hidden="1">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -23309,7 +23313,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" hidden="1">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
@@ -23347,7 +23351,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" hidden="1">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -23385,7 +23389,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" hidden="1">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -23423,7 +23427,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" hidden="1">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -23461,7 +23465,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" hidden="1">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -23499,7 +23503,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" hidden="1">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -23537,7 +23541,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" hidden="1">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
@@ -23575,7 +23579,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" hidden="1">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
@@ -23613,7 +23617,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" hidden="1">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
@@ -23651,7 +23655,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" hidden="1">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
@@ -23689,7 +23693,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" hidden="1">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
@@ -23727,7 +23731,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" hidden="1">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
@@ -23765,7 +23769,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" hidden="1">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
@@ -23803,7 +23807,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" hidden="1">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
@@ -23841,7 +23845,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" hidden="1">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
@@ -23879,7 +23883,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" hidden="1">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
@@ -23917,7 +23921,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" hidden="1">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
@@ -23955,7 +23959,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" hidden="1">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
@@ -23993,7 +23997,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" hidden="1">
       <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
@@ -24031,7 +24035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" hidden="1">
       <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
@@ -24069,7 +24073,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" hidden="1">
       <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
@@ -24107,7 +24111,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" hidden="1">
       <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
@@ -24145,7 +24149,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" hidden="1">
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
@@ -24183,7 +24187,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" hidden="1">
       <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
@@ -24221,7 +24225,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" hidden="1">
       <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
@@ -24259,7 +24263,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" hidden="1">
       <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
@@ -24297,7 +24301,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" hidden="1">
       <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
@@ -24335,7 +24339,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" hidden="1">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
@@ -24373,7 +24377,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" hidden="1">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
@@ -24411,7 +24415,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" hidden="1">
       <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
@@ -24449,7 +24453,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" hidden="1">
       <c r="A80" s="2" t="s">
         <v>78</v>
       </c>
@@ -24487,7 +24491,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" hidden="1">
       <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
@@ -24525,7 +24529,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" hidden="1">
       <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
@@ -24563,7 +24567,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" hidden="1">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
@@ -24601,7 +24605,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" hidden="1">
       <c r="A84" s="2" t="s">
         <v>82</v>
       </c>
@@ -24639,7 +24643,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" hidden="1">
       <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
@@ -24677,7 +24681,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" hidden="1">
       <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
@@ -24715,7 +24719,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" hidden="1">
       <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
@@ -24753,7 +24757,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" hidden="1">
       <c r="A88" s="2" t="s">
         <v>86</v>
       </c>
@@ -24791,7 +24795,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" hidden="1">
       <c r="A89" s="2" t="s">
         <v>87</v>
       </c>
@@ -24829,7 +24833,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" hidden="1">
       <c r="A90" s="2" t="s">
         <v>88</v>
       </c>
@@ -24867,7 +24871,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" hidden="1">
       <c r="A91" s="2" t="s">
         <v>89</v>
       </c>
@@ -24905,7 +24909,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" hidden="1">
       <c r="A92" s="2" t="s">
         <v>90</v>
       </c>
@@ -24943,7 +24947,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" hidden="1">
       <c r="A93" s="2" t="s">
         <v>91</v>
       </c>
@@ -24981,7 +24985,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" hidden="1">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
@@ -25019,7 +25023,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" hidden="1">
       <c r="A95" s="2" t="s">
         <v>93</v>
       </c>
@@ -25057,7 +25061,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" hidden="1">
       <c r="A96" s="2" t="s">
         <v>94</v>
       </c>
@@ -25095,7 +25099,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" hidden="1">
       <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
@@ -25133,7 +25137,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" hidden="1">
       <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
@@ -25171,7 +25175,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" hidden="1">
       <c r="A99" s="2" t="s">
         <v>97</v>
       </c>
@@ -25209,7 +25213,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" hidden="1">
       <c r="A100" s="2" t="s">
         <v>98</v>
       </c>
@@ -25247,7 +25251,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" hidden="1">
       <c r="A101" s="2" t="s">
         <v>99</v>
       </c>
@@ -25285,7 +25289,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" hidden="1">
       <c r="A102" s="2" t="s">
         <v>100</v>
       </c>
@@ -25323,7 +25327,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" hidden="1">
       <c r="A103" s="2" t="s">
         <v>101</v>
       </c>
@@ -25361,7 +25365,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" hidden="1">
       <c r="A104" s="2" t="s">
         <v>102</v>
       </c>
@@ -25399,7 +25403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" hidden="1">
       <c r="A105" s="2" t="s">
         <v>103</v>
       </c>
@@ -25437,7 +25441,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" hidden="1">
       <c r="A106" s="2" t="s">
         <v>104</v>
       </c>
@@ -25475,7 +25479,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" hidden="1">
       <c r="A107" s="2" t="s">
         <v>105</v>
       </c>
@@ -25513,7 +25517,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" hidden="1">
       <c r="A108" s="2" t="s">
         <v>106</v>
       </c>
@@ -25551,7 +25555,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" hidden="1">
       <c r="A109" s="2" t="s">
         <v>107</v>
       </c>
@@ -25589,7 +25593,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" hidden="1">
       <c r="A110" s="2" t="s">
         <v>108</v>
       </c>
@@ -25627,7 +25631,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" hidden="1">
       <c r="A111" s="2" t="s">
         <v>109</v>
       </c>
@@ -25665,7 +25669,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" hidden="1">
       <c r="A112" s="2" t="s">
         <v>110</v>
       </c>
@@ -25703,7 +25707,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" hidden="1">
       <c r="A113" s="2" t="s">
         <v>111</v>
       </c>
@@ -25741,7 +25745,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" hidden="1">
       <c r="A114" s="2" t="s">
         <v>112</v>
       </c>
@@ -25779,7 +25783,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" hidden="1">
       <c r="A115" s="2" t="s">
         <v>113</v>
       </c>
@@ -25817,7 +25821,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" hidden="1">
       <c r="A116" s="2" t="s">
         <v>114</v>
       </c>
@@ -25855,7 +25859,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" hidden="1">
       <c r="A117" s="2" t="s">
         <v>115</v>
       </c>
@@ -25893,7 +25897,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" hidden="1">
       <c r="A118" s="2" t="s">
         <v>116</v>
       </c>
@@ -25931,7 +25935,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" hidden="1">
       <c r="A119" s="2" t="s">
         <v>117</v>
       </c>
@@ -25969,7 +25973,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" hidden="1">
       <c r="A120" s="2" t="s">
         <v>118</v>
       </c>
@@ -26007,7 +26011,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" hidden="1">
       <c r="A121" s="2" t="s">
         <v>119</v>
       </c>
@@ -26045,7 +26049,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" hidden="1">
       <c r="A122" s="2" t="s">
         <v>120</v>
       </c>
@@ -26083,7 +26087,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" hidden="1">
       <c r="A123" s="2" t="s">
         <v>121</v>
       </c>
@@ -26121,7 +26125,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" hidden="1">
       <c r="A124" s="2" t="s">
         <v>122</v>
       </c>
@@ -26159,7 +26163,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" hidden="1">
       <c r="A125" s="2" t="s">
         <v>123</v>
       </c>
@@ -26197,7 +26201,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" hidden="1">
       <c r="A126" s="2" t="s">
         <v>124</v>
       </c>
@@ -26235,7 +26239,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" hidden="1">
       <c r="A127" s="2" t="s">
         <v>125</v>
       </c>
@@ -26273,7 +26277,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" hidden="1">
       <c r="A128" s="2" t="s">
         <v>126</v>
       </c>
@@ -26311,7 +26315,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" hidden="1">
       <c r="A129" s="2" t="s">
         <v>127</v>
       </c>
@@ -26349,7 +26353,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" hidden="1">
       <c r="A130" s="2" t="s">
         <v>128</v>
       </c>
@@ -26387,7 +26391,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" hidden="1">
       <c r="A131" s="2" t="s">
         <v>129</v>
       </c>
@@ -26425,7 +26429,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" hidden="1">
       <c r="A132" s="2" t="s">
         <v>130</v>
       </c>
@@ -26463,7 +26467,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" hidden="1">
       <c r="A133" s="2" t="s">
         <v>131</v>
       </c>
@@ -26501,7 +26505,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" hidden="1">
       <c r="A134" s="2" t="s">
         <v>132</v>
       </c>
@@ -26539,7 +26543,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" hidden="1">
       <c r="A135" s="2" t="s">
         <v>133</v>
       </c>
@@ -26577,7 +26581,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" hidden="1">
       <c r="A136" s="2" t="s">
         <v>134</v>
       </c>
@@ -26615,7 +26619,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" hidden="1">
       <c r="A137" s="2" t="s">
         <v>135</v>
       </c>
@@ -26653,7 +26657,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" hidden="1">
       <c r="A138" s="2" t="s">
         <v>136</v>
       </c>
@@ -26691,7 +26695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" hidden="1">
       <c r="A139" s="2" t="s">
         <v>137</v>
       </c>
@@ -26729,7 +26733,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" hidden="1">
       <c r="A140" s="2" t="s">
         <v>138</v>
       </c>
@@ -26767,7 +26771,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" hidden="1">
       <c r="A141" s="2" t="s">
         <v>139</v>
       </c>
@@ -26805,7 +26809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" hidden="1">
       <c r="A142" s="2" t="s">
         <v>140</v>
       </c>
@@ -26843,7 +26847,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" hidden="1">
       <c r="A143" s="2" t="s">
         <v>141</v>
       </c>
@@ -26881,7 +26885,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" hidden="1">
       <c r="A144" s="2" t="s">
         <v>142</v>
       </c>
@@ -26919,7 +26923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" hidden="1">
       <c r="A145" s="2" t="s">
         <v>143</v>
       </c>
@@ -26957,7 +26961,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" hidden="1">
       <c r="A146" s="2" t="s">
         <v>144</v>
       </c>
@@ -26995,7 +26999,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" hidden="1">
       <c r="A147" s="2" t="s">
         <v>145</v>
       </c>
@@ -27033,7 +27037,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" hidden="1">
       <c r="A148" s="2" t="s">
         <v>146</v>
       </c>
@@ -27071,7 +27075,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" hidden="1">
       <c r="A149" s="2" t="s">
         <v>147</v>
       </c>
@@ -27109,7 +27113,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" hidden="1">
       <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
@@ -27147,7 +27151,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" hidden="1">
       <c r="A151" s="2" t="s">
         <v>149</v>
       </c>
@@ -27185,7 +27189,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" hidden="1">
       <c r="A152" s="2" t="s">
         <v>150</v>
       </c>
@@ -27223,7 +27227,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" hidden="1">
       <c r="A153" s="2" t="s">
         <v>151</v>
       </c>
@@ -27261,7 +27265,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" hidden="1">
       <c r="A154" s="2" t="s">
         <v>152</v>
       </c>
@@ -27299,7 +27303,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" hidden="1">
       <c r="A155" s="2" t="s">
         <v>153</v>
       </c>
@@ -27337,7 +27341,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" hidden="1">
       <c r="A156" s="2" t="s">
         <v>154</v>
       </c>
@@ -27375,7 +27379,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" hidden="1">
       <c r="A157" s="2" t="s">
         <v>155</v>
       </c>
@@ -27413,7 +27417,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" hidden="1">
       <c r="A158" s="2" t="s">
         <v>156</v>
       </c>
@@ -27451,7 +27455,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" hidden="1">
       <c r="A159" s="2" t="s">
         <v>157</v>
       </c>
@@ -27489,7 +27493,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" hidden="1">
       <c r="A160" s="2" t="s">
         <v>158</v>
       </c>
@@ -27527,7 +27531,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" hidden="1">
       <c r="A161" s="2" t="s">
         <v>159</v>
       </c>
@@ -27565,7 +27569,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" hidden="1">
       <c r="A162" s="2" t="s">
         <v>160</v>
       </c>
@@ -27603,7 +27607,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" hidden="1">
       <c r="A163" s="2" t="s">
         <v>161</v>
       </c>
@@ -27641,7 +27645,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" hidden="1">
       <c r="A164" s="2" t="s">
         <v>162</v>
       </c>
@@ -27679,7 +27683,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" hidden="1">
       <c r="A165" s="2" t="s">
         <v>163</v>
       </c>
@@ -27717,7 +27721,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" hidden="1">
       <c r="A166" s="2" t="s">
         <v>164</v>
       </c>
@@ -27755,7 +27759,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" hidden="1">
       <c r="A167" s="2" t="s">
         <v>165</v>
       </c>
@@ -27793,7 +27797,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" hidden="1">
       <c r="A168" s="2" t="s">
         <v>166</v>
       </c>
@@ -27831,7 +27835,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" hidden="1">
       <c r="A169" s="2" t="s">
         <v>167</v>
       </c>
@@ -27869,7 +27873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" hidden="1">
       <c r="A170" s="2" t="s">
         <v>168</v>
       </c>
@@ -27907,7 +27911,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" hidden="1">
       <c r="A171" s="2" t="s">
         <v>169</v>
       </c>
@@ -27945,7 +27949,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" hidden="1">
       <c r="A172" s="2" t="s">
         <v>170</v>
       </c>
@@ -27983,7 +27987,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" hidden="1">
       <c r="A173" s="2" t="s">
         <v>171</v>
       </c>
@@ -28021,7 +28025,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" hidden="1">
       <c r="A174" s="2" t="s">
         <v>172</v>
       </c>
@@ -28059,7 +28063,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" hidden="1">
       <c r="A175" s="2" t="s">
         <v>173</v>
       </c>
@@ -28097,7 +28101,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" hidden="1">
       <c r="A176" s="2" t="s">
         <v>174</v>
       </c>
@@ -28135,7 +28139,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:12" hidden="1">
       <c r="A177" s="2" t="s">
         <v>175</v>
       </c>
@@ -28173,7 +28177,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:12" hidden="1">
       <c r="A178" s="2" t="s">
         <v>176</v>
       </c>
@@ -28211,7 +28215,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:12" hidden="1">
       <c r="A179" s="2" t="s">
         <v>177</v>
       </c>
@@ -28249,7 +28253,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" hidden="1">
       <c r="A180" s="2" t="s">
         <v>178</v>
       </c>
@@ -28287,7 +28291,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:12" hidden="1">
       <c r="A181" s="2" t="s">
         <v>179</v>
       </c>
@@ -28325,7 +28329,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" hidden="1">
       <c r="A182" s="2" t="s">
         <v>180</v>
       </c>
@@ -28363,7 +28367,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" hidden="1">
       <c r="A183" s="2" t="s">
         <v>181</v>
       </c>
@@ -28401,7 +28405,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:12" hidden="1">
       <c r="A184" s="2" t="s">
         <v>182</v>
       </c>
@@ -28439,7 +28443,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" hidden="1">
       <c r="A185" s="2" t="s">
         <v>183</v>
       </c>
@@ -28477,7 +28481,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:12" hidden="1">
       <c r="A186" s="2" t="s">
         <v>184</v>
       </c>
@@ -28515,7 +28519,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" hidden="1">
       <c r="A187" s="2" t="s">
         <v>185</v>
       </c>
@@ -28553,7 +28557,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" hidden="1">
       <c r="A188" s="2" t="s">
         <v>186</v>
       </c>
@@ -28591,7 +28595,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:12" hidden="1">
       <c r="A189" s="2" t="s">
         <v>187</v>
       </c>
@@ -28629,7 +28633,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:12" hidden="1">
       <c r="A190" s="2" t="s">
         <v>188</v>
       </c>
@@ -28667,7 +28671,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:12" hidden="1">
       <c r="A191" s="2" t="s">
         <v>189</v>
       </c>
@@ -28705,7 +28709,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:12" hidden="1">
       <c r="A192" s="2" t="s">
         <v>190</v>
       </c>
@@ -28743,7 +28747,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" hidden="1">
       <c r="A193" s="2" t="s">
         <v>191</v>
       </c>
@@ -28781,7 +28785,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" hidden="1">
       <c r="A194" s="2" t="s">
         <v>192</v>
       </c>
@@ -28819,7 +28823,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" hidden="1">
       <c r="A195" s="2" t="s">
         <v>193</v>
       </c>
@@ -28857,7 +28861,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:12" hidden="1">
       <c r="A196" s="2" t="s">
         <v>194</v>
       </c>
@@ -28895,7 +28899,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:12" hidden="1">
       <c r="A197" s="2" t="s">
         <v>195</v>
       </c>
@@ -28933,7 +28937,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:12" hidden="1">
       <c r="A198" s="2" t="s">
         <v>196</v>
       </c>
@@ -28971,7 +28975,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" hidden="1">
       <c r="A199" s="2" t="s">
         <v>197</v>
       </c>
@@ -29009,7 +29013,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" hidden="1">
       <c r="A200" s="2" t="s">
         <v>198</v>
       </c>
@@ -29047,7 +29051,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:12" hidden="1">
       <c r="A201" s="2" t="s">
         <v>199</v>
       </c>
@@ -29085,7 +29089,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" hidden="1">
       <c r="A202" s="2" t="s">
         <v>200</v>
       </c>
@@ -29123,7 +29127,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:12" hidden="1">
       <c r="A203" s="2" t="s">
         <v>201</v>
       </c>
@@ -29161,7 +29165,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:12" hidden="1">
       <c r="A204" s="2" t="s">
         <v>202</v>
       </c>
@@ -29199,7 +29203,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" hidden="1">
       <c r="A205" s="2" t="s">
         <v>203</v>
       </c>
@@ -29237,7 +29241,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="206" spans="1:12">
+    <row r="206" spans="1:12" hidden="1">
       <c r="A206" s="2" t="s">
         <v>204</v>
       </c>
@@ -29275,7 +29279,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:12" hidden="1">
       <c r="A207" s="2" t="s">
         <v>205</v>
       </c>
@@ -29313,7 +29317,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:12" hidden="1">
       <c r="A208" s="2" t="s">
         <v>206</v>
       </c>
@@ -29351,7 +29355,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:12" hidden="1">
       <c r="A209" s="2" t="s">
         <v>207</v>
       </c>
@@ -29389,7 +29393,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="210" spans="1:12">
+    <row r="210" spans="1:12" hidden="1">
       <c r="A210" s="2" t="s">
         <v>208</v>
       </c>
@@ -29427,7 +29431,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="211" spans="1:12">
+    <row r="211" spans="1:12" hidden="1">
       <c r="A211" s="2" t="s">
         <v>209</v>
       </c>
@@ -29465,7 +29469,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="212" spans="1:12">
+    <row r="212" spans="1:12" hidden="1">
       <c r="A212" s="2" t="s">
         <v>210</v>
       </c>
@@ -29503,7 +29507,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="213" spans="1:12">
+    <row r="213" spans="1:12" hidden="1">
       <c r="A213" s="2" t="s">
         <v>211</v>
       </c>
@@ -29541,7 +29545,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:12" hidden="1">
       <c r="A214" s="2" t="s">
         <v>212</v>
       </c>
@@ -29579,7 +29583,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="215" spans="1:12">
+    <row r="215" spans="1:12" hidden="1">
       <c r="A215" s="2" t="s">
         <v>213</v>
       </c>
@@ -29617,7 +29621,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:12" hidden="1">
       <c r="A216" s="2" t="s">
         <v>214</v>
       </c>
@@ -29655,7 +29659,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="217" spans="1:12">
+    <row r="217" spans="1:12" hidden="1">
       <c r="A217" s="2" t="s">
         <v>215</v>
       </c>
@@ -29693,7 +29697,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="218" spans="1:12">
+    <row r="218" spans="1:12" hidden="1">
       <c r="A218" s="2" t="s">
         <v>216</v>
       </c>
@@ -29731,7 +29735,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="219" spans="1:12">
+    <row r="219" spans="1:12" hidden="1">
       <c r="A219" s="2" t="s">
         <v>217</v>
       </c>
@@ -29769,7 +29773,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="220" spans="1:12">
+    <row r="220" spans="1:12" hidden="1">
       <c r="A220" s="2" t="s">
         <v>218</v>
       </c>
@@ -29807,7 +29811,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="221" spans="1:12">
+    <row r="221" spans="1:12" hidden="1">
       <c r="A221" s="2" t="s">
         <v>219</v>
       </c>
@@ -29845,7 +29849,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="222" spans="1:12">
+    <row r="222" spans="1:12" hidden="1">
       <c r="A222" s="2" t="s">
         <v>220</v>
       </c>
@@ -29883,7 +29887,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="223" spans="1:12">
+    <row r="223" spans="1:12" hidden="1">
       <c r="A223" s="2" t="s">
         <v>221</v>
       </c>
@@ -29921,7 +29925,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="224" spans="1:12">
+    <row r="224" spans="1:12" hidden="1">
       <c r="A224" s="2" t="s">
         <v>222</v>
       </c>
@@ -29959,7 +29963,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="225" spans="1:12">
+    <row r="225" spans="1:12" hidden="1">
       <c r="A225" s="2" t="s">
         <v>223</v>
       </c>
@@ -29997,7 +30001,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="226" spans="1:12">
+    <row r="226" spans="1:12" hidden="1">
       <c r="A226" s="2" t="s">
         <v>224</v>
       </c>
@@ -30035,7 +30039,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="227" spans="1:12">
+    <row r="227" spans="1:12" hidden="1">
       <c r="A227" s="2" t="s">
         <v>225</v>
       </c>
@@ -30073,7 +30077,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="228" spans="1:12">
+    <row r="228" spans="1:12" hidden="1">
       <c r="A228" s="2" t="s">
         <v>226</v>
       </c>
@@ -30111,7 +30115,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="229" spans="1:12">
+    <row r="229" spans="1:12" hidden="1">
       <c r="A229" s="2" t="s">
         <v>227</v>
       </c>
@@ -30149,7 +30153,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="230" spans="1:12">
+    <row r="230" spans="1:12" hidden="1">
       <c r="A230" s="2" t="s">
         <v>228</v>
       </c>
@@ -30187,7 +30191,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="231" spans="1:12">
+    <row r="231" spans="1:12" hidden="1">
       <c r="A231" s="2" t="s">
         <v>229</v>
       </c>
@@ -30225,7 +30229,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="232" spans="1:12">
+    <row r="232" spans="1:12" hidden="1">
       <c r="A232" s="2" t="s">
         <v>230</v>
       </c>
@@ -30263,7 +30267,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="233" spans="1:12">
+    <row r="233" spans="1:12" hidden="1">
       <c r="A233" s="2" t="s">
         <v>231</v>
       </c>
@@ -30301,7 +30305,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="234" spans="1:12">
+    <row r="234" spans="1:12" hidden="1">
       <c r="A234" s="2" t="s">
         <v>232</v>
       </c>
@@ -30339,7 +30343,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="235" spans="1:12">
+    <row r="235" spans="1:12" hidden="1">
       <c r="A235" s="2" t="s">
         <v>233</v>
       </c>
@@ -30377,7 +30381,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="236" spans="1:12">
+    <row r="236" spans="1:12" hidden="1">
       <c r="A236" s="2" t="s">
         <v>234</v>
       </c>
@@ -30415,7 +30419,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="237" spans="1:12">
+    <row r="237" spans="1:12" hidden="1">
       <c r="A237" s="2" t="s">
         <v>235</v>
       </c>
@@ -30453,7 +30457,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="238" spans="1:12">
+    <row r="238" spans="1:12" hidden="1">
       <c r="A238" s="2" t="s">
         <v>236</v>
       </c>
@@ -30491,7 +30495,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="239" spans="1:12">
+    <row r="239" spans="1:12" hidden="1">
       <c r="A239" s="2" t="s">
         <v>237</v>
       </c>
@@ -30529,7 +30533,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="240" spans="1:12">
+    <row r="240" spans="1:12" hidden="1">
       <c r="A240" s="2" t="s">
         <v>238</v>
       </c>
@@ -30567,7 +30571,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="241" spans="1:12">
+    <row r="241" spans="1:12" hidden="1">
       <c r="A241" s="2" t="s">
         <v>239</v>
       </c>
@@ -30605,7 +30609,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="242" spans="1:12">
+    <row r="242" spans="1:12" hidden="1">
       <c r="A242" s="2" t="s">
         <v>240</v>
       </c>
@@ -30643,7 +30647,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="243" spans="1:12">
+    <row r="243" spans="1:12" hidden="1">
       <c r="A243" s="2" t="s">
         <v>241</v>
       </c>
@@ -30681,7 +30685,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="244" spans="1:12">
+    <row r="244" spans="1:12" hidden="1">
       <c r="A244" s="2" t="s">
         <v>242</v>
       </c>
@@ -30719,7 +30723,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="245" spans="1:12">
+    <row r="245" spans="1:12" hidden="1">
       <c r="A245" s="2" t="s">
         <v>243</v>
       </c>
@@ -30757,7 +30761,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="246" spans="1:12">
+    <row r="246" spans="1:12" hidden="1">
       <c r="A246" s="2" t="s">
         <v>244</v>
       </c>
@@ -30795,7 +30799,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="247" spans="1:12">
+    <row r="247" spans="1:12" hidden="1">
       <c r="A247" s="2" t="s">
         <v>245</v>
       </c>
@@ -30833,7 +30837,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="248" spans="1:12">
+    <row r="248" spans="1:12" hidden="1">
       <c r="A248" s="2" t="s">
         <v>246</v>
       </c>
@@ -30871,7 +30875,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="249" spans="1:12">
+    <row r="249" spans="1:12" hidden="1">
       <c r="A249" s="2" t="s">
         <v>247</v>
       </c>
@@ -30909,7 +30913,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="250" spans="1:12">
+    <row r="250" spans="1:12" hidden="1">
       <c r="A250" s="2" t="s">
         <v>248</v>
       </c>
@@ -30947,7 +30951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="251" spans="1:12">
+    <row r="251" spans="1:12" hidden="1">
       <c r="A251" s="2" t="s">
         <v>249</v>
       </c>
@@ -30985,7 +30989,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="252" spans="1:12">
+    <row r="252" spans="1:12" hidden="1">
       <c r="A252" s="2" t="s">
         <v>250</v>
       </c>
@@ -31023,7 +31027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:12">
+    <row r="253" spans="1:12" hidden="1">
       <c r="A253" s="2" t="s">
         <v>251</v>
       </c>
@@ -31061,7 +31065,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="254" spans="1:12">
+    <row r="254" spans="1:12" hidden="1">
       <c r="A254" s="2" t="s">
         <v>252</v>
       </c>
@@ -31099,7 +31103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:12">
+    <row r="255" spans="1:12" hidden="1">
       <c r="A255" s="2" t="s">
         <v>253</v>
       </c>
@@ -31137,7 +31141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:12">
+    <row r="256" spans="1:12" hidden="1">
       <c r="A256" s="2" t="s">
         <v>254</v>
       </c>
@@ -31175,7 +31179,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="257" spans="1:12">
+    <row r="257" spans="1:12" hidden="1">
       <c r="A257" s="2" t="s">
         <v>255</v>
       </c>
@@ -31213,7 +31217,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="258" spans="1:12">
+    <row r="258" spans="1:12" hidden="1">
       <c r="A258" s="2" t="s">
         <v>256</v>
       </c>
@@ -31251,7 +31255,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="259" spans="1:12">
+    <row r="259" spans="1:12" hidden="1">
       <c r="A259" s="2" t="s">
         <v>257</v>
       </c>
@@ -31289,7 +31293,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="260" spans="1:12">
+    <row r="260" spans="1:12" hidden="1">
       <c r="A260" s="2" t="s">
         <v>258</v>
       </c>
@@ -31327,7 +31331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:12">
+    <row r="261" spans="1:12" hidden="1">
       <c r="A261" s="2" t="s">
         <v>259</v>
       </c>
@@ -31365,7 +31369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:12">
+    <row r="262" spans="1:12" hidden="1">
       <c r="A262" s="2" t="s">
         <v>260</v>
       </c>
@@ -31403,7 +31407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="263" spans="1:12">
+    <row r="263" spans="1:12" hidden="1">
       <c r="A263" s="2" t="s">
         <v>261</v>
       </c>
@@ -31441,7 +31445,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="264" spans="1:12">
+    <row r="264" spans="1:12" hidden="1">
       <c r="A264" s="2" t="s">
         <v>262</v>
       </c>
@@ -31479,7 +31483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:12">
+    <row r="265" spans="1:12" hidden="1">
       <c r="A265" s="2" t="s">
         <v>263</v>
       </c>
@@ -31517,7 +31521,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="266" spans="1:12">
+    <row r="266" spans="1:12" hidden="1">
       <c r="A266" s="2" t="s">
         <v>264</v>
       </c>
@@ -31555,7 +31559,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="267" spans="1:12">
+    <row r="267" spans="1:12" hidden="1">
       <c r="A267" s="2" t="s">
         <v>265</v>
       </c>
@@ -31593,7 +31597,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="268" spans="1:12">
+    <row r="268" spans="1:12" hidden="1">
       <c r="A268" s="2" t="s">
         <v>266</v>
       </c>
@@ -31631,7 +31635,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="269" spans="1:12">
+    <row r="269" spans="1:12" hidden="1">
       <c r="A269" s="2" t="s">
         <v>267</v>
       </c>
@@ -31669,7 +31673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="270" spans="1:12">
+    <row r="270" spans="1:12" hidden="1">
       <c r="A270" s="2" t="s">
         <v>268</v>
       </c>
@@ -31707,7 +31711,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="271" spans="1:12">
+    <row r="271" spans="1:12" hidden="1">
       <c r="A271" s="2" t="s">
         <v>269</v>
       </c>
@@ -31745,7 +31749,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="272" spans="1:12">
+    <row r="272" spans="1:12" hidden="1">
       <c r="A272" s="2" t="s">
         <v>270</v>
       </c>
@@ -31783,7 +31787,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="273" spans="1:12">
+    <row r="273" spans="1:12" hidden="1">
       <c r="A273" s="2" t="s">
         <v>271</v>
       </c>
@@ -31821,7 +31825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="274" spans="1:12">
+    <row r="274" spans="1:12" hidden="1">
       <c r="A274" s="2" t="s">
         <v>272</v>
       </c>
@@ -31859,7 +31863,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="275" spans="1:12">
+    <row r="275" spans="1:12" hidden="1">
       <c r="A275" s="2" t="s">
         <v>273</v>
       </c>
@@ -31897,7 +31901,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="276" spans="1:12">
+    <row r="276" spans="1:12" hidden="1">
       <c r="A276" s="2" t="s">
         <v>274</v>
       </c>
@@ -31935,7 +31939,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" spans="1:12" hidden="1">
       <c r="A277" s="2" t="s">
         <v>275</v>
       </c>
@@ -31973,7 +31977,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:12" hidden="1">
       <c r="A278" s="2" t="s">
         <v>276</v>
       </c>
@@ -32011,7 +32015,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="279" spans="1:12">
+    <row r="279" spans="1:12" hidden="1">
       <c r="A279" s="2" t="s">
         <v>277</v>
       </c>
@@ -32049,7 +32053,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="280" spans="1:12">
+    <row r="280" spans="1:12" hidden="1">
       <c r="A280" s="2" t="s">
         <v>278</v>
       </c>
@@ -32087,7 +32091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" spans="1:12">
+    <row r="281" spans="1:12" hidden="1">
       <c r="A281" s="2" t="s">
         <v>279</v>
       </c>
@@ -32125,7 +32129,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:12" hidden="1">
       <c r="A282" s="2" t="s">
         <v>280</v>
       </c>
@@ -32163,7 +32167,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:12" hidden="1">
       <c r="A283" s="2" t="s">
         <v>281</v>
       </c>
@@ -32201,7 +32205,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:12" hidden="1">
       <c r="A284" s="2" t="s">
         <v>282</v>
       </c>
@@ -32239,7 +32243,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="285" spans="1:12">
+    <row r="285" spans="1:12" hidden="1">
       <c r="A285" s="2" t="s">
         <v>283</v>
       </c>
@@ -32277,7 +32281,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="286" spans="1:12">
+    <row r="286" spans="1:12" hidden="1">
       <c r="A286" s="2" t="s">
         <v>284</v>
       </c>
@@ -32315,7 +32319,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="287" spans="1:12">
+    <row r="287" spans="1:12" hidden="1">
       <c r="A287" s="2" t="s">
         <v>285</v>
       </c>
@@ -32353,7 +32357,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="288" spans="1:12">
+    <row r="288" spans="1:12" hidden="1">
       <c r="A288" s="2" t="s">
         <v>286</v>
       </c>
@@ -32391,7 +32395,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="289" spans="1:12">
+    <row r="289" spans="1:12" hidden="1">
       <c r="A289" s="2" t="s">
         <v>287</v>
       </c>
@@ -32429,7 +32433,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="290" spans="1:12">
+    <row r="290" spans="1:12" hidden="1">
       <c r="A290" s="2" t="s">
         <v>288</v>
       </c>
@@ -32467,7 +32471,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="291" spans="1:12">
+    <row r="291" spans="1:12" hidden="1">
       <c r="A291" s="2" t="s">
         <v>289</v>
       </c>
@@ -32505,7 +32509,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="292" spans="1:12">
+    <row r="292" spans="1:12" hidden="1">
       <c r="A292" s="2" t="s">
         <v>290</v>
       </c>
@@ -32543,7 +32547,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="293" spans="1:12">
+    <row r="293" spans="1:12" hidden="1">
       <c r="A293" s="2" t="s">
         <v>291</v>
       </c>
@@ -32581,7 +32585,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="294" spans="1:12">
+    <row r="294" spans="1:12" hidden="1">
       <c r="A294" s="2" t="s">
         <v>292</v>
       </c>
@@ -32619,7 +32623,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="295" spans="1:12">
+    <row r="295" spans="1:12" hidden="1">
       <c r="A295" s="2" t="s">
         <v>293</v>
       </c>
@@ -32657,7 +32661,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="296" spans="1:12">
+    <row r="296" spans="1:12" hidden="1">
       <c r="A296" s="2" t="s">
         <v>294</v>
       </c>
@@ -32695,7 +32699,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="297" spans="1:12">
+    <row r="297" spans="1:12" hidden="1">
       <c r="A297" s="2" t="s">
         <v>295</v>
       </c>
@@ -32733,7 +32737,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="298" spans="1:12">
+    <row r="298" spans="1:12" hidden="1">
       <c r="A298" s="2" t="s">
         <v>296</v>
       </c>
@@ -32771,7 +32775,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="299" spans="1:12">
+    <row r="299" spans="1:12" hidden="1">
       <c r="A299" s="2" t="s">
         <v>297</v>
       </c>
@@ -32809,7 +32813,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="300" spans="1:12">
+    <row r="300" spans="1:12" hidden="1">
       <c r="A300" s="2" t="s">
         <v>298</v>
       </c>
@@ -32847,7 +32851,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="301" spans="1:12">
+    <row r="301" spans="1:12" hidden="1">
       <c r="A301" s="2" t="s">
         <v>299</v>
       </c>
@@ -32885,7 +32889,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="302" spans="1:12">
+    <row r="302" spans="1:12" hidden="1">
       <c r="A302" s="2" t="s">
         <v>300</v>
       </c>
@@ -32923,7 +32927,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="303" spans="1:12">
+    <row r="303" spans="1:12" hidden="1">
       <c r="A303" s="2" t="s">
         <v>301</v>
       </c>
@@ -32961,7 +32965,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="304" spans="1:12">
+    <row r="304" spans="1:12" hidden="1">
       <c r="A304" s="2" t="s">
         <v>302</v>
       </c>
@@ -32999,7 +33003,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="305" spans="1:12">
+    <row r="305" spans="1:12" hidden="1">
       <c r="A305" s="2" t="s">
         <v>303</v>
       </c>
@@ -33037,7 +33041,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="306" spans="1:12">
+    <row r="306" spans="1:12" hidden="1">
       <c r="A306" s="2" t="s">
         <v>304</v>
       </c>
@@ -33075,7 +33079,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="307" spans="1:12">
+    <row r="307" spans="1:12" hidden="1">
       <c r="A307" s="2" t="s">
         <v>305</v>
       </c>
@@ -33113,7 +33117,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="308" spans="1:12">
+    <row r="308" spans="1:12" hidden="1">
       <c r="A308" s="2" t="s">
         <v>306</v>
       </c>
@@ -33151,7 +33155,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="309" spans="1:12">
+    <row r="309" spans="1:12" hidden="1">
       <c r="A309" s="2" t="s">
         <v>307</v>
       </c>
@@ -33189,7 +33193,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="310" spans="1:12">
+    <row r="310" spans="1:12" hidden="1">
       <c r="A310" s="2" t="s">
         <v>308</v>
       </c>
@@ -33227,7 +33231,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="311" spans="1:12">
+    <row r="311" spans="1:12" hidden="1">
       <c r="A311" s="2" t="s">
         <v>309</v>
       </c>
@@ -33265,7 +33269,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="312" spans="1:12">
+    <row r="312" spans="1:12" hidden="1">
       <c r="A312" s="2" t="s">
         <v>310</v>
       </c>
@@ -33303,7 +33307,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="313" spans="1:12">
+    <row r="313" spans="1:12" hidden="1">
       <c r="A313" s="2" t="s">
         <v>311</v>
       </c>
@@ -33341,7 +33345,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="314" spans="1:12">
+    <row r="314" spans="1:12" hidden="1">
       <c r="A314" s="2" t="s">
         <v>312</v>
       </c>
@@ -33379,7 +33383,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="315" spans="1:12">
+    <row r="315" spans="1:12" hidden="1">
       <c r="A315" s="2" t="s">
         <v>313</v>
       </c>
@@ -33417,7 +33421,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="316" spans="1:12">
+    <row r="316" spans="1:12" hidden="1">
       <c r="A316" s="2" t="s">
         <v>314</v>
       </c>
@@ -33455,7 +33459,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="317" spans="1:12">
+    <row r="317" spans="1:12" hidden="1">
       <c r="A317" s="2" t="s">
         <v>315</v>
       </c>
@@ -33493,7 +33497,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="318" spans="1:12">
+    <row r="318" spans="1:12" hidden="1">
       <c r="A318" s="2" t="s">
         <v>316</v>
       </c>
@@ -33532,6 +33536,15 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L318" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Cheshire East"/>
+        <filter val="Cheshire West and Chester"/>
+        <filter val="Warrington"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -33546,20 +33559,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.54296875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="12" customWidth="1"/>
     <col min="3" max="3" width="16" style="17" customWidth="1"/>
     <col min="4" max="4" width="16" style="12" customWidth="1"/>
     <col min="5" max="5" width="16" style="18" customWidth="1"/>
     <col min="6" max="6" width="16" style="12" customWidth="1"/>
     <col min="7" max="7" width="16" style="19" customWidth="1"/>
     <col min="8" max="10" width="16" style="12" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="12"/>
+    <col min="11" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" ht="65">
+    <row r="1" spans="1:10" s="11" customFormat="1" ht="63.75">
       <c r="A1" s="11" t="s">
         <v>697</v>
       </c>
@@ -43749,10 +43762,10 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="16" style="7" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
     <col min="5" max="5" width="16" style="8" customWidth="1"/>
@@ -43761,10 +43774,10 @@
     <col min="8" max="8" width="16" style="2" customWidth="1"/>
     <col min="9" max="9" width="16" style="7" customWidth="1"/>
     <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="2"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="78">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="76.5">
       <c r="A1" s="1" t="s">
         <v>697</v>
       </c>
@@ -53954,20 +53967,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="16" style="21" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
     <col min="5" max="5" width="16" style="8" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" customWidth="1"/>
     <col min="7" max="7" width="16" style="9" customWidth="1"/>
     <col min="8" max="8" width="16" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="2"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="91">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="89.25">
       <c r="A1" s="11" t="s">
         <v>697</v>
       </c>
@@ -62249,20 +62262,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="16" style="7" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
     <col min="5" max="5" width="16" style="8" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" customWidth="1"/>
     <col min="7" max="7" width="16" style="9" customWidth="1"/>
     <col min="8" max="8" width="16" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="2"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" ht="91">
+    <row r="1" spans="1:8" s="11" customFormat="1" ht="89.25">
       <c r="A1" s="11" t="s">
         <v>697</v>
       </c>
@@ -70544,20 +70557,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="16" style="21" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
     <col min="5" max="5" width="16" style="8" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" customWidth="1"/>
     <col min="7" max="7" width="16" style="9" customWidth="1"/>
     <col min="8" max="8" width="16" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="2"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" ht="65">
+    <row r="1" spans="1:8" s="11" customFormat="1" ht="63.75">
       <c r="A1" s="11" t="s">
         <v>697</v>
       </c>
@@ -78839,20 +78852,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="16" style="7" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
     <col min="5" max="5" width="16" style="8" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" customWidth="1"/>
     <col min="7" max="7" width="16" style="9" customWidth="1"/>
     <col min="8" max="8" width="16" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="2"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" ht="91">
+    <row r="1" spans="1:8" s="11" customFormat="1" ht="89.25">
       <c r="A1" s="11" t="s">
         <v>697</v>
       </c>
@@ -87134,20 +87147,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="16" style="7" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
     <col min="5" max="5" width="16" style="8" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" customWidth="1"/>
     <col min="7" max="7" width="16" style="9" customWidth="1"/>
     <col min="8" max="8" width="16" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="2"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" ht="91">
+    <row r="1" spans="1:8" s="11" customFormat="1" ht="89.25">
       <c r="A1" s="11" t="s">
         <v>697</v>
       </c>
